--- a/lmb_stats/lmb_2017_exp_xls.xlsx
+++ b/lmb_stats/lmb_2017_exp_xls.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="lmb_2017_exp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>CLUB</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Vaqueros Laguna</t>
+  </si>
+  <si>
+    <t>Rdif</t>
   </si>
 </sst>
 </file>
@@ -595,9 +598,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -953,15 +957,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1011,11 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1030,27 +1037,27 @@
       <c r="G2">
         <v>30</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>D2/C2</f>
         <v>6.5142857142857142</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>E2/C2</f>
         <v>5.128571428571429</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <f>F2/(F2+G2)</f>
         <v>0.57746478873239437</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <f>F2/G2</f>
         <v>1.3666666666666667</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <f>D2/E2</f>
         <v>1.2701949860724233</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <f>D2^2/(D2^2+E2^2)</f>
         <v>0.61735601231529291</v>
       </c>
@@ -1062,8 +1069,12 @@
         <f>B2-N2</f>
         <v>42.47348263300249</v>
       </c>
+      <c r="P2">
+        <f>D2-E2</f>
+        <v>97</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1085,27 +1096,27 @@
       <c r="G3">
         <v>46</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f t="shared" ref="H3:H17" si="0">D3/C3</f>
         <v>4.4927536231884062</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I17" si="1">E3/C3</f>
         <v>6.1449275362318838</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <f t="shared" ref="J3:J17" si="2">F3/(F3+G3)</f>
         <v>0.34285714285714286</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <f>F3/G3</f>
         <v>0.52173913043478259</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <f>D3/E3</f>
         <v>0.73113207547169812</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <f t="shared" ref="M3:M17" si="3">D3^2/(D3^2+E3^2)</f>
         <v>0.34834490858211659</v>
       </c>
@@ -1117,8 +1128,12 @@
         <f t="shared" ref="O3:O17" si="5">B3-N3</f>
         <v>72.33371514738505</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P17" si="6">D3-E3</f>
+        <v>-114</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1140,27 +1155,27 @@
       <c r="G4">
         <v>35</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>5.549295774647887</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>5.746478873239437</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f t="shared" si="2"/>
         <v>0.51388888888888884</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K17" si="6">F4/G4</f>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K17" si="7">F4/G4</f>
         <v>1.0571428571428572</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L17" si="7">D4/E4</f>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L17" si="8">D4/E4</f>
         <v>0.96568627450980393</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <f t="shared" si="3"/>
         <v>0.48254895865713399</v>
       </c>
@@ -1172,8 +1187,12 @@
         <f t="shared" si="5"/>
         <v>57.437065589058129</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>-14</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1195,27 +1214,27 @@
       <c r="G5">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>4.971830985915493</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>6.295774647887324</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="6"/>
+      <c r="K5" s="2">
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="7"/>
+      <c r="L5" s="2">
+        <f t="shared" si="8"/>
         <v>0.78970917225950787</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <f t="shared" si="3"/>
         <v>0.38410014240886758</v>
       </c>
@@ -1227,8 +1246,12 @@
         <f t="shared" si="5"/>
         <v>68.364884192615705</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>-94</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1250,27 +1273,27 @@
       <c r="G6">
         <v>39</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>4.2794117647058822</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>5.2941176470588234</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f t="shared" si="2"/>
         <v>0.43478260869565216</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="6"/>
+      <c r="K6" s="2">
+        <f t="shared" si="7"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="7"/>
+      <c r="L6" s="2">
+        <f t="shared" si="8"/>
         <v>0.80833333333333335</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <f t="shared" si="3"/>
         <v>0.39518669410727036</v>
       </c>
@@ -1282,8 +1305,12 @@
         <f t="shared" si="5"/>
         <v>67.134276954092996</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>-69</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1305,27 +1332,27 @@
       <c r="G7">
         <v>24</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>5.0151515151515156</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>3.8787878787878789</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
         <v>0.6470588235294118</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="6"/>
+      <c r="K7" s="2">
+        <f t="shared" si="7"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="7"/>
+      <c r="L7" s="2">
+        <f t="shared" si="8"/>
         <v>1.29296875</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f t="shared" si="3"/>
         <v>0.62571603168529444</v>
       </c>
@@ -1337,8 +1364,12 @@
         <f t="shared" si="5"/>
         <v>41.545520482932318</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1360,27 +1391,27 @@
       <c r="G8">
         <v>43</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>4.2058823529411766</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>5.6470588235294121</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
         <v>0.37681159420289856</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="6"/>
+      <c r="K8" s="2">
+        <f t="shared" si="7"/>
         <v>0.60465116279069764</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="7"/>
+      <c r="L8" s="2">
+        <f t="shared" si="8"/>
         <v>0.74479166666666663</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
         <v>0.35679514246331545</v>
       </c>
@@ -1392,8 +1423,12 @@
         <f t="shared" si="5"/>
         <v>71.395739186571987</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>-98</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1415,27 +1450,27 @@
       <c r="G9">
         <v>36</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>5.8857142857142861</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>5.3142857142857141</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f t="shared" si="2"/>
         <v>0.49295774647887325</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
+      <c r="K9" s="2">
+        <f t="shared" si="7"/>
         <v>0.97222222222222221</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="7"/>
+      <c r="L9" s="2">
+        <f t="shared" si="8"/>
         <v>1.10752688172043</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>0.55088794267317476</v>
       </c>
@@ -1447,8 +1482,12 @@
         <f t="shared" si="5"/>
         <v>49.851438363277602</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1470,27 +1509,27 @@
       <c r="G10">
         <v>40</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>4.9852941176470589</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>5.8088235294117645</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f t="shared" si="2"/>
         <v>0.42028985507246375</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="6"/>
+      <c r="K10" s="2">
+        <f t="shared" si="7"/>
         <v>0.72499999999999998</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="7"/>
+      <c r="L10" s="2">
+        <f t="shared" si="8"/>
         <v>0.85822784810126584</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <f t="shared" si="3"/>
         <v>0.42414724705291829</v>
       </c>
@@ -1502,8 +1541,12 @@
         <f t="shared" si="5"/>
         <v>63.919655577126072</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>-56</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1525,27 +1568,27 @@
       <c r="G11">
         <v>32</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>5.732394366197183</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>5.52112676056338</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="6"/>
+      <c r="K11" s="2">
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="7"/>
+      <c r="L11" s="2">
+        <f t="shared" si="8"/>
         <v>1.0382653061224489</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <f t="shared" si="3"/>
         <v>0.51876685258664701</v>
       </c>
@@ -1557,8 +1600,12 @@
         <f t="shared" si="5"/>
         <v>53.416879362882185</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1580,27 +1627,27 @@
       <c r="G12">
         <v>39</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>4.5507246376811592</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>4.7971014492753623</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f t="shared" si="2"/>
         <v>0.44285714285714284</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="6"/>
+      <c r="K12" s="2">
+        <f t="shared" si="7"/>
         <v>0.79487179487179482</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="7"/>
+      <c r="L12" s="2">
+        <f t="shared" si="8"/>
         <v>0.94864048338368578</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <f t="shared" si="3"/>
         <v>0.47366170726903251</v>
       </c>
@@ -1612,8 +1659,12 @@
         <f t="shared" si="5"/>
         <v>58.423550493137391</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>-17</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1635,27 +1686,27 @@
       <c r="G13">
         <v>41</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>5.4179104477611943</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>6.1492537313432836</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f t="shared" si="2"/>
         <v>0.40579710144927539</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="6"/>
+      <c r="K13" s="2">
+        <f t="shared" si="7"/>
         <v>0.68292682926829273</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="7"/>
+      <c r="L13" s="2">
+        <f t="shared" si="8"/>
         <v>0.8810679611650486</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <f t="shared" si="3"/>
         <v>0.43702593254685534</v>
       </c>
@@ -1667,8 +1718,12 @@
         <f t="shared" si="5"/>
         <v>62.490121487299056</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>-49</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1690,27 +1745,27 @@
       <c r="G14">
         <v>23</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>6.1304347826086953</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>4.7826086956521738</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f t="shared" si="2"/>
         <v>0.67142857142857137</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="6"/>
+      <c r="K14" s="2">
+        <f t="shared" si="7"/>
         <v>2.0434782608695654</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="7"/>
+      <c r="L14" s="2">
+        <f t="shared" si="8"/>
         <v>1.2818181818181817</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <f t="shared" si="3"/>
         <v>0.62165035489822085</v>
       </c>
@@ -1722,8 +1777,12 @@
         <f t="shared" si="5"/>
         <v>41.996810606297487</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1745,27 +1804,27 @@
       <c r="G15">
         <v>33</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>4.484375</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <f t="shared" si="2"/>
         <v>0.49230769230769234</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="6"/>
+      <c r="K15" s="2">
+        <f t="shared" si="7"/>
         <v>0.96969696969696972</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="7"/>
+      <c r="L15" s="2">
+        <f t="shared" si="8"/>
         <v>0.89198606271777003</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <f t="shared" si="3"/>
         <v>0.44309523004631352</v>
       </c>
@@ -1777,8 +1836,12 @@
         <f t="shared" si="5"/>
         <v>61.816429464859198</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>-31</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1800,27 +1863,27 @@
       <c r="G16">
         <v>25</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>6.2142857142857144</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
         <v>4.0714285714285712</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <f t="shared" si="2"/>
         <v>0.647887323943662</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="6"/>
+      <c r="K16" s="2">
+        <f t="shared" si="7"/>
         <v>1.84</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="7"/>
+      <c r="L16" s="2">
+        <f t="shared" si="8"/>
         <v>1.5263157894736843</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <f t="shared" si="3"/>
         <v>0.69966722129783698</v>
       </c>
@@ -1832,8 +1895,12 @@
         <f t="shared" si="5"/>
         <v>33.336938435940098</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1855,27 +1922,27 @@
       <c r="G17">
         <v>34</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>6.647887323943662</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
         <v>5.6338028169014081</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <f t="shared" si="2"/>
         <v>0.52777777777777779</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="6"/>
+      <c r="K17" s="2">
+        <f t="shared" si="7"/>
         <v>1.1176470588235294</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="7"/>
+      <c r="L17" s="2">
+        <f t="shared" si="8"/>
         <v>1.18</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <f t="shared" si="3"/>
         <v>0.58200969737502095</v>
       </c>
@@ -1886,6 +1953,10 @@
       <c r="O17" s="1">
         <f t="shared" si="5"/>
         <v>46.396923591372669</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/lmb_stats/lmb_2017_exp_xls.xlsx
+++ b/lmb_stats/lmb_2017_exp_xls.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -121,6 +121,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,10 +601,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,55 +1027,56 @@
         <v>111</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <f>F2+G2</f>
+        <v>108</v>
       </c>
       <c r="D2">
-        <v>456</v>
+        <v>640</v>
       </c>
       <c r="E2">
-        <v>359</v>
+        <v>474</v>
       </c>
       <c r="F2">
+        <v>67</v>
+      </c>
+      <c r="G2">
         <v>41</v>
       </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
       <c r="H2" s="2">
+        <f>E2/C2</f>
+        <v>4.3888888888888893</v>
+      </c>
+      <c r="I2" s="2">
         <f>D2/C2</f>
-        <v>6.5142857142857142</v>
-      </c>
-      <c r="I2" s="2">
-        <f>E2/C2</f>
-        <v>5.128571428571429</v>
-      </c>
-      <c r="J2" s="2">
+        <v>5.9259259259259256</v>
+      </c>
+      <c r="J2" s="3">
         <f>F2/(F2+G2)</f>
-        <v>0.57746478873239437</v>
+        <v>0.62037037037037035</v>
       </c>
       <c r="K2" s="2">
         <f>F2/G2</f>
-        <v>1.3666666666666667</v>
+        <v>1.6341463414634145</v>
       </c>
       <c r="L2" s="2">
         <f>D2/E2</f>
-        <v>1.2701949860724233</v>
+        <v>1.350210970464135</v>
       </c>
       <c r="M2" s="2">
-        <f>D2^2/(D2^2+E2^2)</f>
-        <v>0.61735601231529291</v>
+        <f>D2^2/(E2^2+D2^2)</f>
+        <v>0.64577565602356068</v>
       </c>
       <c r="N2" s="1">
         <f>M2*B2</f>
-        <v>68.52651736699751</v>
+        <v>71.681097818615243</v>
       </c>
       <c r="O2" s="1">
         <f>B2-N2</f>
-        <v>42.47348263300249</v>
+        <v>39.318902181384757</v>
       </c>
       <c r="P2">
         <f>D2-E2</f>
-        <v>97</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1082,55 +1087,56 @@
         <v>111</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <f t="shared" ref="C3:C17" si="0">F3+G3</f>
+        <v>105</v>
       </c>
       <c r="D3">
-        <v>310</v>
+        <v>524</v>
       </c>
       <c r="E3">
-        <v>424</v>
+        <v>601</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H17" si="0">D3/C3</f>
-        <v>4.4927536231884062</v>
+        <f>E3/C3</f>
+        <v>5.7238095238095239</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I17" si="1">E3/C3</f>
-        <v>6.1449275362318838</v>
-      </c>
-      <c r="J3" s="2">
+        <f t="shared" ref="I3:I17" si="1">D3/C3</f>
+        <v>4.9904761904761905</v>
+      </c>
+      <c r="J3" s="3">
         <f t="shared" ref="J3:J17" si="2">F3/(F3+G3)</f>
-        <v>0.34285714285714286</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="K3" s="2">
         <f>F3/G3</f>
-        <v>0.52173913043478259</v>
+        <v>0.75</v>
       </c>
       <c r="L3" s="2">
-        <f>D3/E3</f>
-        <v>0.73113207547169812</v>
+        <f t="shared" ref="L3:L17" si="3">D3/E3</f>
+        <v>0.8718801996672213</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M17" si="3">D3^2/(D3^2+E3^2)</f>
-        <v>0.34834490858211659</v>
+        <f t="shared" ref="M3:M17" si="4">D3^2/(E3^2+D3^2)</f>
+        <v>0.43187469820392999</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N17" si="4">M3*B3</f>
-        <v>38.666284852614943</v>
+        <f t="shared" ref="N3:N17" si="5">M3*B3</f>
+        <v>47.938091500636226</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O17" si="5">B3-N3</f>
-        <v>72.33371514738505</v>
+        <f t="shared" ref="O3:O17" si="6">B3-N3</f>
+        <v>63.061908499363774</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P17" si="6">D3-E3</f>
-        <v>-114</v>
+        <f t="shared" ref="P3:P17" si="7">D3-E3</f>
+        <v>-77</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1141,55 +1147,56 @@
         <v>111</v>
       </c>
       <c r="C4">
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="D4">
-        <v>394</v>
+        <v>578</v>
       </c>
       <c r="E4">
-        <v>408</v>
+        <v>599</v>
       </c>
       <c r="F4">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>5.549295774647887</v>
+        <f>E4/C4</f>
+        <v>5.4954128440366974</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="1"/>
-        <v>5.746478873239437</v>
-      </c>
-      <c r="J4" s="2">
+        <v>5.3027522935779814</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="2"/>
-        <v>0.51388888888888884</v>
+        <v>0.52293577981651373</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K17" si="7">F4/G4</f>
-        <v>1.0571428571428572</v>
+        <f t="shared" ref="K4:K17" si="8">F4/G4</f>
+        <v>1.0961538461538463</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L17" si="8">D4/E4</f>
-        <v>0.96568627450980393</v>
+        <f t="shared" si="3"/>
+        <v>0.96494156928213692</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.48254895865713399</v>
+        <f t="shared" si="4"/>
+        <v>0.48216370682003507</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="4"/>
-        <v>53.562934410941871</v>
+        <f t="shared" si="5"/>
+        <v>53.520171457023892</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" si="5"/>
-        <v>57.437065589058129</v>
+        <f t="shared" si="6"/>
+        <v>57.479828542976108</v>
       </c>
       <c r="P4">
-        <f t="shared" si="6"/>
-        <v>-14</v>
+        <f t="shared" si="7"/>
+        <v>-21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1200,55 +1207,56 @@
         <v>111</v>
       </c>
       <c r="C5">
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>353</v>
+        <v>517</v>
       </c>
       <c r="E5">
-        <v>447</v>
+        <v>702</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>4.971830985915493</v>
+        <f>E5/C5</f>
+        <v>6.4403669724770642</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="1"/>
-        <v>6.295774647887324</v>
-      </c>
-      <c r="J5" s="2">
+        <v>4.7431192660550456</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="2"/>
-        <v>0.44444444444444442</v>
+        <v>0.39449541284403672</v>
       </c>
       <c r="K5" s="2">
+        <f t="shared" si="8"/>
+        <v>0.65151515151515149</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.73646723646723644</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.35165302140659105</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="5"/>
+        <v>39.033485376131608</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="6"/>
+        <v>71.966514623868392</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" si="8"/>
-        <v>0.78970917225950787</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.38410014240886758</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="4"/>
-        <v>42.635115807384302</v>
-      </c>
-      <c r="O5" s="1">
-        <f t="shared" si="5"/>
-        <v>68.364884192615705</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="6"/>
-        <v>-94</v>
+        <v>-185</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1259,55 +1267,56 @@
         <v>111</v>
       </c>
       <c r="C6">
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="D6">
-        <v>291</v>
+        <v>444</v>
       </c>
       <c r="E6">
-        <v>360</v>
+        <v>603</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2794117647058822</v>
+        <f>E6/C6</f>
+        <v>5.6355140186915884</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="1"/>
-        <v>5.2941176470588234</v>
-      </c>
-      <c r="J6" s="2">
+        <v>4.1495327102803738</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="2"/>
-        <v>0.43478260869565216</v>
+        <v>0.37383177570093457</v>
       </c>
       <c r="K6" s="2">
+        <f t="shared" si="8"/>
+        <v>0.59701492537313428</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.73631840796019898</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.3515608699141321</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="5"/>
+        <v>39.02325656046866</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="6"/>
+        <v>71.976743439531333</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="7"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="8"/>
-        <v>0.80833333333333335</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.39518669410727036</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="4"/>
-        <v>43.865723045907011</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="5"/>
-        <v>67.134276954092996</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="6"/>
-        <v>-69</v>
+        <v>-159</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1318,55 +1327,56 @@
         <v>111</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="D7">
-        <v>331</v>
+        <v>503</v>
       </c>
       <c r="E7">
-        <v>256</v>
+        <v>408</v>
       </c>
       <c r="F7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0151515151515156</v>
+        <f>E7/C7</f>
+        <v>3.8857142857142857</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="1"/>
-        <v>3.8787878787878789</v>
-      </c>
-      <c r="J7" s="2">
+        <v>4.7904761904761903</v>
+      </c>
+      <c r="J7" s="3">
         <f t="shared" si="2"/>
-        <v>0.6470588235294118</v>
+        <v>0.6</v>
       </c>
       <c r="K7" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>1.232843137254902</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.60315920214173502</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="5"/>
+        <v>66.950671437732581</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="6"/>
+        <v>44.049328562267419</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="7"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="8"/>
-        <v>1.29296875</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.62571603168529444</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="4"/>
-        <v>69.454479517067682</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" si="5"/>
-        <v>41.545520482932318</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="6"/>
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1377,55 +1387,56 @@
         <v>111</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="E8">
-        <v>384</v>
+        <v>556</v>
       </c>
       <c r="F8">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G8">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2058823529411766</v>
+        <f>E8/C8</f>
+        <v>5.1962616822429908</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>5.6470588235294121</v>
-      </c>
-      <c r="J8" s="2">
+        <v>3.7943925233644862</v>
+      </c>
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
-        <v>0.37681159420289856</v>
+        <v>0.35514018691588783</v>
       </c>
       <c r="K8" s="2">
+        <f t="shared" si="8"/>
+        <v>0.55072463768115942</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.73021582733812951</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.34777581798080898</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="5"/>
+        <v>38.603115795869797</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="6"/>
+        <v>72.396884204130203</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="7"/>
-        <v>0.60465116279069764</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="8"/>
-        <v>0.74479166666666663</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.35679514246331545</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>39.604260813428013</v>
-      </c>
-      <c r="O8" s="1">
-        <f t="shared" si="5"/>
-        <v>71.395739186571987</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="6"/>
-        <v>-98</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1436,55 +1447,56 @@
         <v>111</v>
       </c>
       <c r="C9">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="D9">
-        <v>412</v>
+        <v>629</v>
       </c>
       <c r="E9">
-        <v>372</v>
+        <v>601</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>5.8857142857142861</v>
+        <f>E9/C9</f>
+        <v>5.4636363636363638</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>5.3142857142857141</v>
-      </c>
-      <c r="J9" s="2">
+        <v>5.7181818181818178</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
-        <v>0.49295774647887325</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="K9" s="2">
+        <f t="shared" si="8"/>
+        <v>1.037037037037037</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0465890183028286</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.52275243710047803</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="5"/>
+        <v>58.025520518153058</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="6"/>
+        <v>52.974479481846942</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="7"/>
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="8"/>
-        <v>1.10752688172043</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.55088794267317476</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="4"/>
-        <v>61.148561636722398</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="5"/>
-        <v>49.851438363277602</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1495,55 +1507,56 @@
         <v>111</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <f t="shared" si="0"/>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>339</v>
+        <v>496</v>
       </c>
       <c r="E10">
-        <v>395</v>
+        <v>545</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G10">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9852941176470589</v>
+        <f>E10/C10</f>
+        <v>5.1415094339622645</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>5.8088235294117645</v>
-      </c>
-      <c r="J10" s="2">
+        <v>4.6792452830188678</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="2"/>
-        <v>0.42028985507246375</v>
+        <v>0.40566037735849059</v>
       </c>
       <c r="K10" s="2">
+        <f t="shared" si="8"/>
+        <v>0.68253968253968256</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.91009174311926611</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.45303393298111927</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="5"/>
+        <v>50.28676656090424</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="6"/>
+        <v>60.71323343909576</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="7"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="8"/>
-        <v>0.85822784810126584</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="3"/>
-        <v>0.42414724705291829</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="4"/>
-        <v>47.080344422873928</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="5"/>
-        <v>63.919655577126072</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="6"/>
-        <v>-56</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1554,55 +1567,56 @@
         <v>111</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>407</v>
+        <v>633</v>
       </c>
       <c r="E11">
-        <v>392</v>
+        <v>557</v>
       </c>
       <c r="F11">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="G11">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.732394366197183</v>
+        <f>E11/C11</f>
+        <v>5.0636363636363635</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>5.52112676056338</v>
-      </c>
-      <c r="J11" s="2">
+        <v>5.7545454545454549</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="2"/>
-        <v>0.55555555555555558</v>
+        <v>0.58181818181818179</v>
       </c>
       <c r="K11" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1364452423698383</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.563606109112187</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>62.56027811145276</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="6"/>
+        <v>48.43972188854724</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" si="8"/>
-        <v>1.0382653061224489</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="3"/>
-        <v>0.51876685258664701</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="4"/>
-        <v>57.583120637117815</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="5"/>
-        <v>53.416879362882185</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1613,55 +1627,56 @@
         <v>111</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>314</v>
+        <v>446</v>
       </c>
       <c r="E12">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G12">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5507246376811592</v>
+        <f>E12/C12</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>4.7971014492753623</v>
-      </c>
-      <c r="J12" s="2">
+        <v>4.2476190476190476</v>
+      </c>
+      <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>0.44285714285714284</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="K12" s="2">
+        <f t="shared" si="8"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.96536796536796532</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.48238432437675816</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="5"/>
+        <v>53.544660005820155</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="6"/>
+        <v>57.455339994179845</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="7"/>
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="8"/>
-        <v>0.94864048338368578</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.47366170726903251</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="4"/>
-        <v>52.576449506862609</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="5"/>
-        <v>58.423550493137391</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="6"/>
-        <v>-17</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1672,55 +1687,56 @@
         <v>111</v>
       </c>
       <c r="C13">
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>108</v>
       </c>
       <c r="D13">
-        <v>363</v>
+        <v>566</v>
       </c>
       <c r="E13">
-        <v>412</v>
+        <v>658</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G13">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4179104477611943</v>
+        <f>E13/C13</f>
+        <v>6.0925925925925926</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="1"/>
-        <v>6.1492537313432836</v>
-      </c>
-      <c r="J13" s="2">
+        <v>5.2407407407407405</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="2"/>
-        <v>0.40579710144927539</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="K13" s="2">
+        <f t="shared" si="8"/>
+        <v>0.6875</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86018237082066873</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.42525885413901132</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="5"/>
+        <v>47.203732809430257</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="6"/>
+        <v>63.796267190569743</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="7"/>
-        <v>0.68292682926829273</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="8"/>
-        <v>0.8810679611650486</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.43702593254685534</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="4"/>
-        <v>48.509878512700944</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="5"/>
-        <v>62.490121487299056</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="6"/>
-        <v>-49</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1731,55 +1747,56 @@
         <v>111</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="D14">
-        <v>423</v>
+        <v>604</v>
       </c>
       <c r="E14">
-        <v>330</v>
+        <v>484</v>
       </c>
       <c r="F14">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>6.1304347826086953</v>
+        <f>E14/C14</f>
+        <v>4.4403669724770642</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" si="1"/>
-        <v>4.7826086956521738</v>
-      </c>
-      <c r="J14" s="2">
+        <v>5.5412844036697244</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="2"/>
-        <v>0.67142857142857137</v>
+        <v>0.62385321100917435</v>
       </c>
       <c r="K14" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6585365853658536</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2479338842975207</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.60896853800544848</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="5"/>
+        <v>67.595507718604779</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="6"/>
+        <v>43.404492281395221</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="7"/>
-        <v>2.0434782608695654</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="8"/>
-        <v>1.2818181818181817</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.62165035489822085</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="4"/>
-        <v>69.003189393702513</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="5"/>
-        <v>41.996810606297487</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="6"/>
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1790,55 +1807,56 @@
         <v>111</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <f t="shared" si="0"/>
+        <v>105</v>
       </c>
       <c r="D15">
-        <v>256</v>
+        <v>408</v>
       </c>
       <c r="E15">
-        <v>287</v>
+        <v>457</v>
       </c>
       <c r="F15">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G15">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>E15/C15</f>
+        <v>4.352380952380952</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="1"/>
-        <v>4.484375</v>
-      </c>
-      <c r="J15" s="2">
+        <v>3.8857142857142857</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="2"/>
-        <v>0.49230769230769234</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="K15" s="2">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89277899343544853</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.44353379712400048</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="5"/>
+        <v>49.232251480764056</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="6"/>
+        <v>61.767748519235944</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="7"/>
-        <v>0.96969696969696972</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="8"/>
-        <v>0.89198606271777003</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="3"/>
-        <v>0.44309523004631352</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="4"/>
-        <v>49.183570535140802</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="5"/>
-        <v>61.816429464859198</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="6"/>
-        <v>-31</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1849,55 +1867,56 @@
         <v>111</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>435</v>
+        <v>630</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>430</v>
       </c>
       <c r="F16">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="G16">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>6.2142857142857144</v>
+        <f>E16/C16</f>
+        <v>3.9090909090909092</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" si="1"/>
-        <v>4.0714285714285712</v>
-      </c>
-      <c r="J16" s="2">
+        <v>5.7272727272727275</v>
+      </c>
+      <c r="J16" s="3">
         <f t="shared" si="2"/>
-        <v>0.647887323943662</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="K16" s="2">
+        <f t="shared" si="8"/>
+        <v>2.2352941176470589</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4651162790697674</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.68219319353729801</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="5"/>
+        <v>75.723444482640076</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="6"/>
+        <v>35.276555517359924</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="7"/>
-        <v>1.84</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5263157894736843</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="3"/>
-        <v>0.69966722129783698</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="4"/>
-        <v>77.663061564059902</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="5"/>
-        <v>33.336938435940098</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1908,55 +1927,56 @@
         <v>111</v>
       </c>
       <c r="C17">
-        <v>71</v>
+        <f t="shared" si="0"/>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>472</v>
+        <v>665</v>
       </c>
       <c r="E17">
-        <v>400</v>
+        <v>552</v>
       </c>
       <c r="F17">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>6.647887323943662</v>
+        <f>E17/C17</f>
+        <v>5.0642201834862384</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" si="1"/>
-        <v>5.6338028169014081</v>
-      </c>
-      <c r="J17" s="2">
+        <v>6.1009174311926602</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="2"/>
-        <v>0.52777777777777779</v>
+        <v>0.55045871559633031</v>
       </c>
       <c r="K17" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2244897959183674</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2047101449275361</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.59205761190153283</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="5"/>
+        <v>65.718394921070143</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="6"/>
+        <v>45.281605078929857</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="7"/>
-        <v>1.1176470588235294</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="8"/>
-        <v>1.18</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="3"/>
-        <v>0.58200969737502095</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="4"/>
-        <v>64.603076408627331</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="5"/>
-        <v>46.396923591372669</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="6"/>
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
